--- a/doc/EasyUSDx_test case.xlsx
+++ b/doc/EasyUSDx_test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC081EA5-5E62-4DFC-B052-BA2E7180DB00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF60AF8-8C59-4B46-B1F4-4ED13686E8F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
   <si>
     <t>Notes</t>
   </si>
@@ -132,6 +132,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -389,9 +390,6 @@
   </si>
   <si>
     <t>2USDC</t>
-  </si>
-  <si>
-    <t>2USDC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -512,20 +510,7 @@
 liquidity=liquidity-(1000000-1000)</t>
   </si>
   <si>
-    <t>Sender Balance -=1.00000001
-Fee=0.00100000001
-Receiver Balance +=(1.00000001-0.00100000001)
-liquidity=liquidity-(1.00000001-0.00100000001)</t>
-  </si>
-  <si>
     <t>MAX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sender Balance -=1.00000001
-Fee=0.00100000001
-Receiver Balance +=(1.00000001-0.00100000001)
-liquidity=liquidity-(1.00000001-0.00100000001)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -598,6 +583,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1017,47 +1003,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1098,14 +1045,53 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1419,9 +1405,9 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="S19" sqref="S19"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1443,22 +1429,22 @@
     <row r="1" spans="1:17" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="33" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="52"/>
+      <c r="G1" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="31"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1512,948 +1498,948 @@
       <c r="O2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="31">
         <v>1</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="32">
         <v>1000</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="47">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
+      <c r="N3" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44">
+      <c r="A4" s="49"/>
+      <c r="B4" s="31">
         <v>2</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="32">
         <v>1000</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="47">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44">
+      <c r="A5" s="49"/>
+      <c r="B5" s="31">
         <v>3</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="32">
         <v>1000</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="47">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
+      <c r="N5" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44">
+      <c r="A6" s="49"/>
+      <c r="B6" s="31">
         <v>4</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="32">
         <v>1000</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="47">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44">
+      <c r="A7" s="49"/>
+      <c r="B7" s="31">
         <v>5</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="32">
         <v>1000</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="47">
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
+      <c r="N7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44">
+      <c r="A8" s="49"/>
+      <c r="B8" s="31">
         <v>6</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="32">
         <v>1000</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="47">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="34">
         <v>2E-3</v>
       </c>
-      <c r="L8" s="45" t="s">
+      <c r="L8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="48" t="s">
+      <c r="M8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
+      <c r="N8" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44">
+      <c r="A9" s="49"/>
+      <c r="B9" s="31">
         <v>7</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="32">
         <v>1000</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47">
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="48" t="s">
+      <c r="M9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
+      <c r="N9" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44">
+      <c r="A10" s="49"/>
+      <c r="B10" s="31">
         <v>8</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="32">
         <v>1000</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47">
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L10" s="45" t="s">
+      <c r="L10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="48" t="s">
+      <c r="M10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="48" t="s">
+      <c r="N10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44">
+      <c r="A11" s="49"/>
+      <c r="B11" s="31">
         <v>9</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="32">
         <v>1000</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47">
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L11" s="45" t="s">
+      <c r="L11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="48" t="s">
+      <c r="M11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
+      <c r="N11" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44">
+      <c r="A12" s="49"/>
+      <c r="B12" s="31">
         <v>10</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="45">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="32">
         <v>1000</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="47">
+      <c r="H12" s="33"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="L12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="48" t="s">
+      <c r="M12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="48" t="s">
+      <c r="N12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44">
+      <c r="A13" s="49"/>
+      <c r="B13" s="31">
         <v>11</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="45">
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="32">
         <v>1000</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="47">
+      <c r="H13" s="33"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="34">
         <v>2E-3</v>
       </c>
-      <c r="L13" s="45" t="s">
+      <c r="L13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
+      <c r="N13" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
     </row>
     <row r="14" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44">
+      <c r="A14" s="49"/>
+      <c r="B14" s="31">
         <v>12</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="45">
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="32">
         <v>1000</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="47">
+      <c r="H14" s="33"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L14" s="45" t="s">
+      <c r="L14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="48" t="s">
+      <c r="M14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
+      <c r="N14" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44">
+      <c r="A15" s="49"/>
+      <c r="B15" s="31">
         <v>13</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37">
         <v>1000</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51" t="s">
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="39">
         <v>1E-3</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="53" t="s">
+      <c r="M15" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="O15" s="45"/>
-      <c r="P15" s="59" t="s">
-        <v>91</v>
+      <c r="N15" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="32"/>
+      <c r="P15" s="44" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44">
+      <c r="A16" s="49"/>
+      <c r="B16" s="31">
         <v>14</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37">
         <v>1000</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="39">
         <v>1E-3</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="L16" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="53" t="s">
+      <c r="M16" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="53" t="s">
+      <c r="N16" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="57"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="45"/>
     </row>
     <row r="17" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44">
+      <c r="A17" s="49"/>
+      <c r="B17" s="31">
         <v>15</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37">
         <v>1000</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51" t="s">
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="39">
         <v>1E-3</v>
       </c>
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="O17" s="45"/>
-      <c r="P17" s="57"/>
+      <c r="N17" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="32"/>
+      <c r="P17" s="45"/>
     </row>
     <row r="18" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44">
+      <c r="A18" s="49"/>
+      <c r="B18" s="31">
         <v>16</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="50">
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="37">
         <v>1000</v>
       </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="52">
+      <c r="J18" s="37"/>
+      <c r="K18" s="39">
         <v>1E-3</v>
       </c>
-      <c r="L18" s="50" t="s">
+      <c r="L18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="53" t="s">
+      <c r="M18" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="53" t="s">
+      <c r="N18" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="45"/>
-      <c r="P18" s="57"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="45"/>
     </row>
     <row r="19" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44">
+      <c r="A19" s="49"/>
+      <c r="B19" s="31">
         <v>17</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="50">
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="37">
         <v>1000</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="52">
+      <c r="J19" s="37"/>
+      <c r="K19" s="39">
         <v>2E-3</v>
       </c>
-      <c r="L19" s="50" t="s">
+      <c r="L19" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="53" t="s">
+      <c r="M19" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="45"/>
-      <c r="P19" s="57"/>
+      <c r="N19" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="32"/>
+      <c r="P19" s="45"/>
     </row>
     <row r="20" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44">
+      <c r="A20" s="49"/>
+      <c r="B20" s="31">
         <v>18</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="50">
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="37">
         <v>1000</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="52">
+      <c r="J20" s="37"/>
+      <c r="K20" s="39">
         <v>1E-3</v>
       </c>
-      <c r="L20" s="50" t="s">
+      <c r="L20" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="53" t="s">
+      <c r="M20" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="O20" s="45"/>
-      <c r="P20" s="58"/>
+      <c r="N20" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20" s="32"/>
+      <c r="P20" s="46"/>
     </row>
     <row r="21" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="31">
         <v>19</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="32">
         <v>1000000</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="47">
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L21" s="48" t="s">
+      <c r="L21" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="M21" s="48" t="s">
+      <c r="M21" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N21" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
+      <c r="N21" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44">
+      <c r="A22" s="49"/>
+      <c r="B22" s="31">
         <v>20</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="32">
         <v>1000000</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="47">
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L22" s="48" t="s">
+      <c r="L22" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="M22" s="48" t="s">
+      <c r="M22" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N22" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
+      <c r="N22" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44">
+      <c r="A23" s="49"/>
+      <c r="B23" s="31">
         <v>21</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="45">
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="32">
         <v>1000000</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="47">
+      <c r="H23" s="33"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L23" s="48" t="s">
+      <c r="L23" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="M23" s="48" t="s">
+      <c r="M23" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N23" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
+      <c r="N23" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
     </row>
     <row r="24" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44">
+      <c r="A24" s="49"/>
+      <c r="B24" s="31">
         <v>22</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="32">
         <v>1000000</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="47">
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L24" s="48" t="s">
+      <c r="L24" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="M24" s="48" t="s">
+      <c r="M24" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
+      <c r="N24" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
     </row>
     <row r="25" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44">
+      <c r="A25" s="49"/>
+      <c r="B25" s="31">
         <v>23</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="45">
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="32">
         <v>1000000</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="46" t="s">
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="47">
+      <c r="K25" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L25" s="48" t="s">
+      <c r="L25" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="M25" s="48" t="s">
+      <c r="M25" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
+      <c r="N25" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="31">
         <v>24</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="32">
         <v>1.0000009999999999</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="47">
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L26" s="48" t="s">
+      <c r="L26" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="M26" s="48" t="s">
+      <c r="M26" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
+      <c r="N26" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
     </row>
-    <row r="27" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44">
+    <row r="27" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="49"/>
+      <c r="B27" s="31">
         <v>25</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="47">
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L27" s="48" t="s">
+      <c r="L27" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="M27" s="48" t="s">
+      <c r="M27" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
+      <c r="N27" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
     </row>
     <row r="28" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44">
+      <c r="A28" s="49"/>
+      <c r="B28" s="31">
         <v>26</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45">
+      <c r="C28" s="32"/>
+      <c r="D28" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="32">
         <v>1.0000009999999999</v>
       </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="45"/>
-      <c r="K28" s="47">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L28" s="48" t="s">
+      <c r="L28" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="M28" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="N28" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
+      <c r="N28" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
     </row>
     <row r="29" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44">
+      <c r="A29" s="49"/>
+      <c r="B29" s="31">
         <v>27</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="46" t="s">
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32">
+        <v>1.0000009999999999</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="45"/>
-      <c r="K29" s="47">
+      <c r="K29" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="M29" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="N29" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
+      <c r="M29" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
     </row>
     <row r="30" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="31">
+        <v>28</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="L30" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="44">
-        <v>28</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="L30" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="M30" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="N30" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
+      <c r="M30" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A31" s="45"/>
-      <c r="B31" s="44">
+      <c r="A31" s="32"/>
+      <c r="B31" s="31">
         <v>29</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="L31" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="L31" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="M31" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="N31" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
+      <c r="M31" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2490,19 +2476,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16383" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="A1" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:16383" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="19" t="s">
         <v>29</v>
       </c>
@@ -2512,33 +2498,33 @@
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:16383" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="57" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="58" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:16383" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="39"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="21"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:16383" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="39"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="21"/>
       <c r="E5" s="16"/>
     </row>
@@ -18932,7 +18918,7 @@
       <c r="XFC6" s="11"/>
     </row>
     <row r="7" spans="1:16383" ht="81" x14ac:dyDescent="0.15">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -18945,7 +18931,7 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:16383" ht="81" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="23" t="s">
         <v>39</v>
       </c>
@@ -18956,7 +18942,7 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:16383" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
@@ -18992,19 +18978,19 @@
       <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:16383" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="A13" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:16383" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="19" t="s">
         <v>29</v>
       </c>
@@ -19016,10 +19002,10 @@
     <row r="15" spans="1:16383" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="17"/>
@@ -19027,10 +19013,10 @@
     <row r="16" spans="1:16383" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
       <c r="B16" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="17"/>
@@ -19038,10 +19024,10 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
       <c r="B17" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="16"/>
@@ -19049,10 +19035,10 @@
     <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>87</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>90</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="16"/>
@@ -19060,10 +19046,10 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="16"/>

--- a/doc/EasyUSDx_test case.xlsx
+++ b/doc/EasyUSDx_test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\xswap\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25F11D2-3148-416B-8C4D-2559D292159A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B79928-050D-4AB7-B070-23770CECE993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1407,7 +1407,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2094,10 +2094,9 @@
         <v>1000000</v>
       </c>
       <c r="D21" s="32"/>
-      <c r="E21" s="33" t="s">
+      <c r="F21" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
@@ -2128,10 +2127,10 @@
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="33"/>
+      <c r="H22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="32"/>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
       <c r="K22" s="34">

--- a/doc/EasyUSDx_test case.xlsx
+++ b/doc/EasyUSDx_test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\xswap\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B79928-050D-4AB7-B070-23770CECE993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B75EB4-DC51-4B7F-8831-1926B9F7E989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
   <si>
     <t>Notes</t>
   </si>
@@ -166,10 +166,6 @@
   </si>
   <si>
     <t>998.99USDx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.00000001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -314,22 +310,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1000USDC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>998.99USDC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>999USDC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000USDT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1000000</t>
     </r>
@@ -368,10 +348,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>USDC,USDT,Rate,liquidity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2</t>
     </r>
@@ -386,14 +362,6 @@
       </rPr>
       <t>PAX</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2USDC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USDT,USDC,Rate,liquidity</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -504,31 +472,10 @@
 liquidity=liquidity-(1000000-1000)</t>
   </si>
   <si>
-    <t>Sender Balance -=1.000001
-Fee=0.001000001
-Receiver Balance +=(1.000001-0.001000001)
-liquidity=liquidity-(1000000-1000)</t>
-  </si>
-  <si>
-    <t>MAX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Sender Balance -=1000000
 Fee=1000
 Receiver Balance +=(1000000-1000)
 liquidity=liquidity-(1000000-1000)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;=Selling amount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sender Balance =0
-Fee=Selling amount x 0.1%
-Receiver Balance +=(Selling amount-Fee)
-liquidity=liquidity - (Selling amount-Fee)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -549,7 +496,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>暂不支持，可以跳过</t>
+    <t>2USDT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2USDx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sender Balance -=1.000001
+Fee=0.001000001
+Receiver Balance +=(1.000001-0.001000001)
+liquidity=liquidity-(1.000001-0.001000001)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +607,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,14 +620,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -881,30 +833,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -912,7 +840,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,35 +952,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1402,12 +1303,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833554AD-A5F3-4C73-8A6E-46C96706AFC3}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1429,22 +1330,22 @@
     <row r="1" spans="1:17" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="48"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="43"/>
+      <c r="I1" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="39"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1457,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
@@ -1466,22 +1367,22 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>7</v>
@@ -1498,14 +1399,14 @@
       <c r="O2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
-        <v>25</v>
+      <c r="A3" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="B3" s="31">
         <v>1</v>
@@ -1532,13 +1433,13 @@
         <v>13</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="O3" s="32"/>
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="49"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="31">
         <v>2</v>
       </c>
@@ -1570,7 +1471,7 @@
       <c r="P4" s="32"/>
     </row>
     <row r="5" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="31">
         <v>3</v>
       </c>
@@ -1596,13 +1497,13 @@
         <v>13</v>
       </c>
       <c r="N5" s="36" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="31">
         <v>4</v>
       </c>
@@ -1634,7 +1535,7 @@
       <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="49"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="31">
         <v>5</v>
       </c>
@@ -1660,13 +1561,13 @@
         <v>13</v>
       </c>
       <c r="N7" s="36" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="49"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="31">
         <v>6</v>
       </c>
@@ -1692,13 +1593,13 @@
         <v>13</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="49"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="31">
         <v>7</v>
       </c>
@@ -1724,13 +1625,13 @@
         <v>14</v>
       </c>
       <c r="N9" s="36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="49"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="31">
         <v>8</v>
       </c>
@@ -1762,7 +1663,7 @@
       <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="49"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="31">
         <v>9</v>
       </c>
@@ -1788,13 +1689,13 @@
         <v>14</v>
       </c>
       <c r="N11" s="36" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="O11" s="32"/>
       <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="49"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="31">
         <v>10</v>
       </c>
@@ -1826,7 +1727,7 @@
       <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13" s="49"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="31">
         <v>11</v>
       </c>
@@ -1852,13 +1753,13 @@
         <v>14</v>
       </c>
       <c r="N13" s="36" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O13" s="32"/>
       <c r="P13" s="32"/>
     </row>
     <row r="14" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="31">
         <v>12</v>
       </c>
@@ -1884,231 +1785,231 @@
         <v>14</v>
       </c>
       <c r="N14" s="36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="49"/>
+      <c r="A15" s="40" t="s">
+        <v>25</v>
+      </c>
       <c r="B15" s="31">
+        <v>19</v>
+      </c>
+      <c r="C15" s="32">
+        <v>1000000</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="F15" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+    </row>
+    <row r="16" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="40"/>
+      <c r="B16" s="31">
+        <v>20</v>
+      </c>
+      <c r="C16" s="32">
+        <v>1000000</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="39">
-        <v>1E-3</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="32"/>
-      <c r="P15" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="49"/>
-      <c r="B16" s="31">
-        <v>14</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="39">
-        <v>1E-3</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="40" t="s">
-        <v>15</v>
+      <c r="N16" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="O16" s="32"/>
-      <c r="P16" s="45"/>
+      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A17" s="49"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="31">
-        <v>15</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="39">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="32">
+        <v>1000000</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L17" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="40" t="s">
+      <c r="L17" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="41" t="s">
-        <v>76</v>
+      <c r="N17" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="O17" s="32"/>
-      <c r="P17" s="45"/>
+      <c r="P17" s="32"/>
     </row>
-    <row r="18" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
+    <row r="18" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="A18" s="40"/>
       <c r="B18" s="31">
-        <v>16</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="37">
-        <v>1000</v>
-      </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="39">
+      <c r="E18" s="32">
+        <v>1000000</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="40" t="s">
-        <v>15</v>
+      <c r="L18" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>71</v>
       </c>
       <c r="O18" s="32"/>
-      <c r="P18" s="45"/>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A19" s="49"/>
+      <c r="A19" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="B19" s="31">
-        <v>17</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1.0000009999999999</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="37">
-        <v>1000</v>
-      </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="39">
-        <v>2E-3</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="M19" s="40" t="s">
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="41" t="s">
-        <v>74</v>
+      <c r="N19" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="O19" s="32"/>
-      <c r="P19" s="45"/>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A20" s="49"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="31">
-        <v>18</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="32">
+        <v>1.0000009999999999</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="37">
-        <v>1000</v>
-      </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="39">
+      <c r="G20" s="33"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L20" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="41" t="s">
-        <v>77</v>
+      <c r="L20" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="O20" s="32"/>
-      <c r="P20" s="46"/>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="31">
         <v>26</v>
       </c>
-      <c r="B21" s="31">
-        <v>19</v>
-      </c>
-      <c r="C21" s="32">
-        <v>1000000</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="F21" s="33" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="33" t="s">
         <v>6</v>
       </c>
+      <c r="E21" s="32">
+        <v>1.0000009999999999</v>
+      </c>
+      <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="34">
         <v>1E-3</v>
       </c>
       <c r="L21" s="35" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N21" s="36" t="s">
         <v>78</v>
@@ -2117,30 +2018,30 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A22" s="49"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="31">
-        <v>20</v>
-      </c>
-      <c r="C22" s="32">
-        <v>1000000</v>
-      </c>
-      <c r="D22" s="32"/>
+        <v>26</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33" t="s">
+        <v>6</v>
+      </c>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
+      <c r="G22" s="32">
+        <v>1.0000009999999999</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="34">
         <v>1E-3</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N22" s="36" t="s">
         <v>78</v>
@@ -2148,305 +2049,12 @@
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
     </row>
-    <row r="23" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A23" s="49"/>
-      <c r="B23" s="31">
-        <v>21</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="32">
-        <v>1000000</v>
-      </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="34">
-        <v>1E-3</v>
-      </c>
-      <c r="L23" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="M23" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="24" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="49"/>
-      <c r="B24" s="31">
-        <v>22</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="32">
-        <v>1000000</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="34">
-        <v>1E-3</v>
-      </c>
-      <c r="L24" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="M24" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N24" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-    </row>
-    <row r="25" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A25" s="49"/>
-      <c r="B25" s="31">
-        <v>23</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="32">
-        <v>1000000</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="34">
-        <v>1E-3</v>
-      </c>
-      <c r="L25" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="M25" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-    </row>
-    <row r="26" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A26" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="31">
-        <v>24</v>
-      </c>
-      <c r="C26" s="32">
-        <v>1.0000009999999999</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="34">
-        <v>1E-3</v>
-      </c>
-      <c r="L26" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-    </row>
-    <row r="27" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="49"/>
-      <c r="B27" s="31">
-        <v>25</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="34">
-        <v>1E-3</v>
-      </c>
-      <c r="L27" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="N27" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-    </row>
-    <row r="28" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A28" s="49"/>
-      <c r="B28" s="31">
-        <v>26</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="32">
-        <v>1.0000009999999999</v>
-      </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34">
-        <v>1E-3</v>
-      </c>
-      <c r="L28" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="M28" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-    </row>
-    <row r="29" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A29" s="49"/>
-      <c r="B29" s="31">
-        <v>27</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32">
-        <v>1.0000009999999999</v>
-      </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="34">
-        <v>1E-3</v>
-      </c>
-      <c r="L29" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="M29" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="N29" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-    </row>
-    <row r="30" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A30" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="31">
-        <v>28</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="34">
-        <v>1E-3</v>
-      </c>
-      <c r="L30" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="M30" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="N30" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:16" ht="54" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
-      <c r="B31" s="31">
-        <v>29</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="34">
-        <v>1E-3</v>
-      </c>
-      <c r="L31" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="M31" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="N31" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="P15:P20"/>
+  <mergeCells count="7">
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -2475,65 +2083,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16383" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
+      <c r="A1" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:16383" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:16383" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>41</v>
+      <c r="C3" s="49" t="s">
+        <v>40</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:16383" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="59"/>
+        <v>32</v>
+      </c>
+      <c r="C4" s="50"/>
       <c r="D4" s="21"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:16383" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="59"/>
+        <v>33</v>
+      </c>
+      <c r="C5" s="50"/>
       <c r="D5" s="21"/>
       <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:16383" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="17"/>
@@ -18917,47 +18525,47 @@
       <c r="XFC6" s="11"/>
     </row>
     <row r="7" spans="1:16383" ht="81" x14ac:dyDescent="0.15">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:16383" ht="81" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:16383" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:16383" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="16"/>
@@ -18977,34 +18585,34 @@
       <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:16383" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
+      <c r="A13" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:16383" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:16383" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="29" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="17"/>
@@ -19012,10 +18620,10 @@
     <row r="16" spans="1:16383" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
       <c r="B16" s="29" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="17"/>
@@ -19023,10 +18631,10 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
       <c r="B17" s="29" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="16"/>
@@ -19034,10 +18642,10 @@
     <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="16"/>
@@ -19045,10 +18653,10 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="16"/>
